--- a/Intern Roster/Intern Roster/Test_Run_Output_19.03.19.xlsx
+++ b/Intern Roster/Intern Roster/Test_Run_Output_19.03.19.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\SLE352 CSP\Repo\Rostering\Intern Roster\Intern Roster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11B8962-20AC-4D2E-9174-CEF7C7D0B6FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA543E-5700-4816-AB3D-1D04D5F6855A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{855125A2-6D13-4840-8BA3-E7F38CA39805}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{855125A2-6D13-4840-8BA3-E7F38CA39805}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="1" sheetId="3" r:id="rId2"/>
-    <sheet name="2" sheetId="4" r:id="rId3"/>
-    <sheet name="3" sheetId="5" r:id="rId4"/>
-    <sheet name="4" sheetId="6" r:id="rId5"/>
-    <sheet name="5" sheetId="7" r:id="rId6"/>
-    <sheet name="6" sheetId="8" r:id="rId7"/>
-    <sheet name="7" sheetId="9" r:id="rId8"/>
-    <sheet name="8" sheetId="10" r:id="rId9"/>
-    <sheet name="9" sheetId="11" r:id="rId10"/>
-    <sheet name="10" sheetId="12" r:id="rId11"/>
-    <sheet name="11" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="3" sheetId="5" r:id="rId5"/>
+    <sheet name="4" sheetId="6" r:id="rId6"/>
+    <sheet name="5" sheetId="7" r:id="rId7"/>
+    <sheet name="6" sheetId="8" r:id="rId8"/>
+    <sheet name="7" sheetId="9" r:id="rId9"/>
+    <sheet name="8" sheetId="10" r:id="rId10"/>
+    <sheet name="9" sheetId="11" r:id="rId11"/>
+    <sheet name="10" sheetId="12" r:id="rId12"/>
+    <sheet name="11" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="18">
   <si>
     <t>Intern  (size 11)</t>
   </si>
@@ -49,12 +50,54 @@
   <si>
     <t>Value</t>
   </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>DISP</t>
+  </si>
+  <si>
+    <t>MCH</t>
+  </si>
+  <si>
+    <t>CPK</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>CPCa</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CPM</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>A/L</t>
+  </si>
+  <si>
+    <t>CPD-G</t>
+  </si>
+  <si>
+    <t>CPD-V</t>
+  </si>
+  <si>
+    <t>QUM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +105,105 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE8E8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84F775"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF796FFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89DFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F973"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +218,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +548,3991 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C44A1-0D94-4D6D-B1D2-86706026A250}">
+  <dimension ref="A1:BC12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:BC2">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:BC3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:BC4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:BC5">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:BC6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:BC7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:BC8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:BC9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:BC10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:BC11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:BC12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9FA0BC-9742-4EE0-BB7B-384F8AA65D42}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D7477B-8303-44EE-A05F-41FE9B4BE4D4}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5AF86-740A-4572-B484-DD30AF997A89}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24154A61-FE37-4688-87D3-60623E8ACECA}">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:B54">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605150A0-E4B9-4591-BBF4-67FE64ADCA22}">
   <dimension ref="A1:D595"/>
   <sheetViews>
@@ -8759,1388 +12894,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D7477B-8303-44EE-A05F-41FE9B4BE4D4}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C86F04-89EF-4E59-B982-3EC7210CC88C}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>16</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>15</v>
-      </c>
-      <c r="B46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>10</v>
-      </c>
-      <c r="B54">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:B54">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5AF86-740A-4572-B484-DD30AF997A89}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>11</v>
-      </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>10</v>
-      </c>
-      <c r="B52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>15</v>
-      </c>
-      <c r="B54">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:B54">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24154A61-FE37-4688-87D3-60623E8ACECA}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>8</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>11</v>
-      </c>
-      <c r="B39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>11</v>
-      </c>
-      <c r="B46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>9</v>
-      </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:B54">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C86F04-89EF-4E59-B982-3EC7210CC88C}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -10595,7 +13353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3262DBD-2967-4C62-BF58-28A25C5F3A84}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -11032,465 +13790,6 @@
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
-      </c>
-      <c r="B54">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:B54">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B927518-69B1-4697-80B5-1B421DA4B981}">
-  <dimension ref="A1:B54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>11</v>
-      </c>
-      <c r="B29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>7</v>
-      </c>
-      <c r="B35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>11</v>
-      </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>12</v>
-      </c>
-      <c r="B41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>13</v>
-      </c>
-      <c r="B45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>10</v>
-      </c>
-      <c r="B49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -11514,7 +13813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBACD5B-8C9D-4AEE-8469-C29431F79228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B927518-69B1-4697-80B5-1B421DA4B981}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11525,7 +13824,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -11533,7 +13832,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -11541,7 +13840,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -11549,7 +13848,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -11557,7 +13856,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -11565,7 +13864,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -11573,7 +13872,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -11581,7 +13880,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -11589,7 +13888,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -11597,7 +13896,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -11605,7 +13904,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -11621,7 +13920,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -11629,7 +13928,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -11637,7 +13936,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -11645,7 +13944,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -11653,7 +13952,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -11661,7 +13960,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -11669,7 +13968,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -11677,7 +13976,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -11685,7 +13984,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -11693,7 +13992,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -11701,7 +14000,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -11709,7 +14008,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -11717,7 +14016,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -11725,7 +14024,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -11733,7 +14032,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -11741,7 +14040,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -11757,7 +14056,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -11765,7 +14064,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -11773,7 +14072,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -11781,7 +14080,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -11789,7 +14088,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -11797,7 +14096,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -11805,7 +14104,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -11813,7 +14112,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -11821,7 +14120,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -11829,7 +14128,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -11837,7 +14136,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -11845,7 +14144,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -11853,7 +14152,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -11861,7 +14160,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -11869,7 +14168,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -11877,7 +14176,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -11885,7 +14184,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -11893,7 +14192,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -11901,7 +14200,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -11909,7 +14208,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -11917,7 +14216,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -11925,7 +14224,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -11933,7 +14232,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -11941,7 +14240,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -11949,7 +14248,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -11973,7 +14272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA147FDB-DF83-4466-9709-5B83143292C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBACD5B-8C9D-4AEE-8469-C29431F79228}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11984,7 +14283,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -11992,7 +14291,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -12000,7 +14299,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -12008,7 +14307,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -12016,7 +14315,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -12024,7 +14323,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -12032,7 +14331,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -12040,7 +14339,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -12048,7 +14347,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -12056,7 +14355,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -12064,7 +14363,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -12072,7 +14371,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -12080,7 +14379,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -12088,7 +14387,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -12096,7 +14395,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -12104,7 +14403,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -12112,7 +14411,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -12120,7 +14419,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -12128,7 +14427,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -12136,7 +14435,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -12144,7 +14443,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -12152,7 +14451,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -12160,7 +14459,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -12176,7 +14475,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -12184,7 +14483,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -12192,7 +14491,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -12200,7 +14499,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -12208,7 +14507,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -12216,7 +14515,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -12232,7 +14531,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -12240,7 +14539,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -12248,7 +14547,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -12256,7 +14555,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -12264,7 +14563,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -12272,7 +14571,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -12280,7 +14579,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -12288,7 +14587,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -12296,7 +14595,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -12304,7 +14603,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -12312,7 +14611,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -12320,7 +14619,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -12328,7 +14627,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -12336,7 +14635,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -12344,7 +14643,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -12352,7 +14651,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -12360,7 +14659,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -12368,7 +14667,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -12376,7 +14675,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -12384,7 +14683,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -12392,7 +14691,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -12400,7 +14699,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -12408,7 +14707,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -12432,7 +14731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EA809C-FF78-4EB9-9950-EB9AD5E20ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA147FDB-DF83-4466-9709-5B83143292C5}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12443,7 +14742,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -12451,7 +14750,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -12459,7 +14758,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -12475,7 +14774,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -12491,7 +14790,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -12499,7 +14798,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -12507,7 +14806,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -12523,7 +14822,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -12531,7 +14830,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -12563,7 +14862,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -12571,7 +14870,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -12579,7 +14878,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -12587,7 +14886,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -12595,7 +14894,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -12603,7 +14902,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -12611,7 +14910,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -12619,7 +14918,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -12627,7 +14926,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -12635,7 +14934,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -12643,7 +14942,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -12651,7 +14950,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -12659,7 +14958,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -12667,7 +14966,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -12675,7 +14974,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -12691,7 +14990,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -12699,7 +14998,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -12707,7 +15006,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -12715,7 +15014,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -12723,7 +15022,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -12731,7 +15030,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -12739,7 +15038,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -12747,7 +15046,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -12755,7 +15054,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -12763,7 +15062,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -12771,7 +15070,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -12779,7 +15078,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -12787,7 +15086,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -12795,7 +15094,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -12803,7 +15102,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -12811,7 +15110,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -12819,7 +15118,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -12827,7 +15126,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -12835,7 +15134,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -12843,7 +15142,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -12851,7 +15150,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -12859,7 +15158,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -12867,7 +15166,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -12891,7 +15190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8704C554-0B45-473B-AEDA-61999CD370F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EA809C-FF78-4EB9-9950-EB9AD5E20ED5}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12902,7 +15201,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -12910,7 +15209,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -12918,7 +15217,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -12926,7 +15225,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -12934,7 +15233,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -12950,7 +15249,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -12958,7 +15257,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -12974,7 +15273,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -12982,7 +15281,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -12990,7 +15289,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -12998,7 +15297,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -13014,7 +15313,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -13030,7 +15329,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -13038,7 +15337,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -13046,7 +15345,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -13054,7 +15353,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -13062,7 +15361,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -13070,7 +15369,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -13078,7 +15377,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -13086,7 +15385,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -13094,7 +15393,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -13102,7 +15401,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -13110,7 +15409,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -13118,7 +15417,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -13126,7 +15425,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -13134,7 +15433,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -13142,7 +15441,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -13150,7 +15449,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -13158,7 +15457,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -13166,7 +15465,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -13174,7 +15473,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -13182,7 +15481,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -13190,7 +15489,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -13198,7 +15497,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -13206,7 +15505,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -13222,7 +15521,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -13230,7 +15529,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -13238,7 +15537,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -13246,7 +15545,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>44</v>
@@ -13254,7 +15553,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -13262,7 +15561,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -13270,7 +15569,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -13278,7 +15577,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -13286,7 +15585,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -13294,7 +15593,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -13302,7 +15601,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -13310,7 +15609,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -13318,7 +15617,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -13326,7 +15625,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>54</v>
@@ -13350,7 +15649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9FA0BC-9742-4EE0-BB7B-384F8AA65D42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8704C554-0B45-473B-AEDA-61999CD370F8}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13361,7 +15660,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -13369,7 +15668,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -13377,7 +15676,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -13385,7 +15684,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -13393,7 +15692,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -13401,7 +15700,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -13409,7 +15708,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -13417,7 +15716,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -13425,7 +15724,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -13433,7 +15732,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -13449,7 +15748,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -13457,7 +15756,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -13465,7 +15764,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -13473,7 +15772,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -13481,7 +15780,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -13489,7 +15788,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -13497,7 +15796,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -13505,7 +15804,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -13513,7 +15812,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -13521,7 +15820,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -13529,7 +15828,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -13537,7 +15836,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -13545,7 +15844,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -13553,7 +15852,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -13561,7 +15860,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -13569,7 +15868,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -13577,7 +15876,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -13585,7 +15884,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -13593,7 +15892,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -13601,7 +15900,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>31</v>
@@ -13609,7 +15908,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>32</v>
@@ -13617,7 +15916,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>33</v>
@@ -13625,7 +15924,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <v>34</v>
@@ -13633,7 +15932,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>35</v>
@@ -13641,7 +15940,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>36</v>
@@ -13649,7 +15948,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>37</v>
@@ -13657,7 +15956,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>38</v>
@@ -13665,7 +15964,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>39</v>
@@ -13673,7 +15972,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -13681,7 +15980,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>41</v>
@@ -13689,7 +15988,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>42</v>
@@ -13697,7 +15996,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -13713,7 +16012,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>45</v>
@@ -13721,7 +16020,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <v>46</v>
@@ -13729,7 +16028,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>47</v>
@@ -13737,7 +16036,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>48</v>
@@ -13745,7 +16044,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>49</v>
@@ -13753,7 +16052,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -13761,7 +16060,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>51</v>
@@ -13769,7 +16068,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -13777,7 +16076,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>53</v>
@@ -13785,7 +16084,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>54</v>
